--- a/Code/Results/Cases/Case_2_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002183955317688</v>
+        <v>1.03785925370218</v>
       </c>
       <c r="D2">
-        <v>1.023708036917069</v>
+        <v>1.04524604160471</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.027737097500178</v>
+        <v>1.053790055485428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045362894423306</v>
+        <v>1.037280911380811</v>
       </c>
       <c r="J2">
-        <v>1.024299540300093</v>
+        <v>1.042959835490737</v>
       </c>
       <c r="K2">
-        <v>1.034846673756344</v>
+        <v>1.048014820969711</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.038823075629312</v>
+        <v>1.056535052745712</v>
       </c>
       <c r="N2">
-        <v>1.011543546500806</v>
+        <v>1.018178382498527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007951097500701</v>
+        <v>1.039045880737935</v>
       </c>
       <c r="D3">
-        <v>1.028096951108496</v>
+        <v>1.046164771942056</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.032655835316047</v>
+        <v>1.054842783620176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046871749966704</v>
+        <v>1.037519192159759</v>
       </c>
       <c r="J3">
-        <v>1.028227329691143</v>
+        <v>1.043789825735101</v>
       </c>
       <c r="K3">
-        <v>1.038382517844548</v>
+        <v>1.048744673321982</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.042887256575662</v>
+        <v>1.057400282218778</v>
       </c>
       <c r="N3">
-        <v>1.012894901922206</v>
+        <v>1.018459634241917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011590960599503</v>
+        <v>1.039813424913413</v>
       </c>
       <c r="D4">
-        <v>1.030869436277478</v>
+        <v>1.046758848677108</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.035765400368553</v>
+        <v>1.055523861995926</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047812920487271</v>
+        <v>1.03767188201818</v>
       </c>
       <c r="J4">
-        <v>1.030702744906461</v>
+        <v>1.044326090291865</v>
       </c>
       <c r="K4">
-        <v>1.040609040375464</v>
+        <v>1.049215906405099</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.045450512041562</v>
+        <v>1.057959435242298</v>
       </c>
       <c r="N4">
-        <v>1.013745939154373</v>
+        <v>1.018641203521407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013100141195673</v>
+        <v>1.040136034459991</v>
       </c>
       <c r="D5">
-        <v>1.032019491818915</v>
+        <v>1.047008502464379</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.037055864321107</v>
+        <v>1.055810162324627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048200432087401</v>
+        <v>1.037735715376262</v>
       </c>
       <c r="J5">
-        <v>1.031728212099415</v>
+        <v>1.044551346505638</v>
       </c>
       <c r="K5">
-        <v>1.041530929338603</v>
+        <v>1.049413766704775</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.046512799359431</v>
+        <v>1.058194334194198</v>
       </c>
       <c r="N5">
-        <v>1.014098331009118</v>
+        <v>1.018717435032862</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013352333927544</v>
+        <v>1.040190198199891</v>
       </c>
       <c r="D6">
-        <v>1.032211700504467</v>
+        <v>1.0470504148134</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.037271574116394</v>
+        <v>1.055858231960476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048265025964317</v>
+        <v>1.037746412320644</v>
       </c>
       <c r="J6">
-        <v>1.031899519046719</v>
+        <v>1.044589156932336</v>
       </c>
       <c r="K6">
-        <v>1.04168490491757</v>
+        <v>1.049446973904652</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.046690282004934</v>
+        <v>1.05823376486988</v>
       </c>
       <c r="N6">
-        <v>1.014157189362404</v>
+        <v>1.018730228768067</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011611207687203</v>
+        <v>1.039817735895279</v>
       </c>
       <c r="D7">
-        <v>1.030884863442458</v>
+        <v>1.046762184940164</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.03578270868727</v>
+        <v>1.055527687652471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047818130152309</v>
+        <v>1.037672736367023</v>
       </c>
       <c r="J7">
-        <v>1.030716506155487</v>
+        <v>1.044329100919623</v>
       </c>
       <c r="K7">
-        <v>1.04062141355123</v>
+        <v>1.0492185511904</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.045464765717601</v>
+        <v>1.057962574636835</v>
       </c>
       <c r="N7">
-        <v>1.013750668715719</v>
+        <v>1.018642222524125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004152616134353</v>
+        <v>1.038260339453638</v>
       </c>
       <c r="D8">
-        <v>1.025205656730626</v>
+        <v>1.045556614593963</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.029415012389963</v>
+        <v>1.054145852445229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045880261806657</v>
+        <v>1.037361748862569</v>
       </c>
       <c r="J8">
-        <v>1.025641041781109</v>
+        <v>1.043240499614611</v>
       </c>
       <c r="K8">
-        <v>1.036054691440939</v>
+        <v>1.048261691625087</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.040210751415851</v>
+        <v>1.056827608112215</v>
       </c>
       <c r="N8">
-        <v>1.012005217078524</v>
+        <v>1.018273519799433</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9902587435835712</v>
+        <v>1.035513765333836</v>
       </c>
       <c r="D9">
-        <v>1.0146503670273</v>
+        <v>1.043429135992441</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.017598751444085</v>
+        <v>1.051710033160227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042183552036815</v>
+        <v>1.036802302045913</v>
       </c>
       <c r="J9">
-        <v>1.016160243237538</v>
+        <v>1.041316121389348</v>
       </c>
       <c r="K9">
-        <v>1.02751014137579</v>
+        <v>1.046567667916862</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.030412611173115</v>
+        <v>1.054822200287946</v>
       </c>
       <c r="N9">
-        <v>1.00874011259831</v>
+        <v>1.017620597453043</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9804190770803465</v>
+        <v>1.033681099025833</v>
       </c>
       <c r="D10">
-        <v>1.007197548981654</v>
+        <v>1.042008693196644</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.00926753322422</v>
+        <v>1.050085539449362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039510231382965</v>
+        <v>1.036421630169053</v>
       </c>
       <c r="J10">
-        <v>1.009431709675813</v>
+        <v>1.040029030136272</v>
       </c>
       <c r="K10">
-        <v>1.021438054214988</v>
+        <v>1.045432959897615</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.023471451554617</v>
+        <v>1.053481555565409</v>
       </c>
       <c r="N10">
-        <v>1.006420290536897</v>
+        <v>1.017183136749386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.976003378632746</v>
+        <v>1.032887125701578</v>
       </c>
       <c r="D11">
-        <v>1.003859833767939</v>
+        <v>1.041393113755787</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.005539101742108</v>
+        <v>1.049381959425644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038298289421138</v>
+        <v>1.036254964084407</v>
       </c>
       <c r="J11">
-        <v>1.006409678155941</v>
+        <v>1.039470702682946</v>
       </c>
       <c r="K11">
-        <v>1.018709324535361</v>
+        <v>1.044940338614154</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.020357309294305</v>
+        <v>1.052900152590287</v>
       </c>
       <c r="N11">
-        <v>1.005377900474332</v>
+        <v>1.016993191236495</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9743381729704977</v>
+        <v>1.032592143786833</v>
       </c>
       <c r="D12">
-        <v>1.002602316072237</v>
+        <v>1.041164381440408</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.004134765061758</v>
+        <v>1.049120592878882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037839493301433</v>
+        <v>1.036192781230252</v>
       </c>
       <c r="J12">
-        <v>1.005269743484006</v>
+        <v>1.039263162271762</v>
       </c>
       <c r="K12">
-        <v>1.017679829062179</v>
+        <v>1.044757163155202</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.019183175922653</v>
+        <v>1.052684058212966</v>
       </c>
       <c r="N12">
-        <v>1.004984643843733</v>
+        <v>1.016922558240891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9746965269053763</v>
+        <v>1.032655421380816</v>
       </c>
       <c r="D13">
-        <v>1.002872879977756</v>
+        <v>1.041213448873329</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.004436900859328</v>
+        <v>1.049176658065433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03793830483516</v>
+        <v>1.036206132142346</v>
       </c>
       <c r="J13">
-        <v>1.005515070550939</v>
+        <v>1.039307687325851</v>
       </c>
       <c r="K13">
-        <v>1.017901396657887</v>
+        <v>1.044796463705321</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.019435837646351</v>
+        <v>1.052730417334334</v>
       </c>
       <c r="N13">
-        <v>1.005069279644144</v>
+        <v>1.016937712828254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9758662531497636</v>
+        <v>1.032862743740935</v>
       </c>
       <c r="D14">
-        <v>1.003756255774604</v>
+        <v>1.041374208281566</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.005423422923041</v>
+        <v>1.049360355313558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038260543976752</v>
+        <v>1.036249829655278</v>
       </c>
       <c r="J14">
-        <v>1.006315812923333</v>
+        <v>1.039453550450695</v>
       </c>
       <c r="K14">
-        <v>1.018624556948647</v>
+        <v>1.044925201235884</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.020260616735801</v>
+        <v>1.052882292929902</v>
       </c>
       <c r="N14">
-        <v>1.00534551980259</v>
+        <v>1.016987354299939</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9765835904846938</v>
+        <v>1.032990473225741</v>
       </c>
       <c r="D15">
-        <v>1.004298146344805</v>
+        <v>1.041473247004988</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.006028637253023</v>
+        <v>1.04947353382782</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03845792857903</v>
+        <v>1.036276716599517</v>
       </c>
       <c r="J15">
-        <v>1.006806833658816</v>
+        <v>1.039543401260244</v>
       </c>
       <c r="K15">
-        <v>1.019067978966951</v>
+        <v>1.045004494946341</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.020766450025732</v>
+        <v>1.052975850522638</v>
       </c>
       <c r="N15">
-        <v>1.005514904820193</v>
+        <v>1.017017929600709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.980708722265642</v>
+        <v>1.033733783447653</v>
       </c>
       <c r="D16">
-        <v>1.00741663829397</v>
+        <v>1.042049536185492</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.009512323704817</v>
+        <v>1.050132230205188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039589480254476</v>
+        <v>1.036432652609557</v>
       </c>
       <c r="J16">
-        <v>1.009629892791045</v>
+        <v>1.040066063139062</v>
       </c>
       <c r="K16">
-        <v>1.021616973725774</v>
+        <v>1.045465626395776</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.023675748638014</v>
+        <v>1.053520122427798</v>
       </c>
       <c r="N16">
-        <v>1.00648864109564</v>
+        <v>1.017195731778571</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.983253630164851</v>
+        <v>1.034199929147875</v>
       </c>
       <c r="D17">
-        <v>1.009342413777771</v>
+        <v>1.042410887806651</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.011664311674919</v>
+        <v>1.050545368533119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040284404893363</v>
+        <v>1.036529976274767</v>
       </c>
       <c r="J17">
-        <v>1.011370913673767</v>
+        <v>1.040393644271744</v>
       </c>
       <c r="K17">
-        <v>1.023188595794677</v>
+        <v>1.045754537253323</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.025470868195173</v>
+        <v>1.053861289525906</v>
       </c>
       <c r="N17">
-        <v>1.00708904248881</v>
+        <v>1.017307122363627</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9847231959456884</v>
+        <v>1.034471783995301</v>
       </c>
       <c r="D18">
-        <v>1.01045509655075</v>
+        <v>1.042621608139253</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.012907950046033</v>
+        <v>1.050786329423413</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040684529234293</v>
+        <v>1.036586566719821</v>
       </c>
       <c r="J18">
-        <v>1.012376030422915</v>
+        <v>1.040584619587953</v>
       </c>
       <c r="K18">
-        <v>1.024095769190166</v>
+        <v>1.045922930124603</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.026507534068606</v>
+        <v>1.054060200237985</v>
       </c>
       <c r="N18">
-        <v>1.007435617506163</v>
+        <v>1.017372044251006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9852218130974536</v>
+        <v>1.034564472747121</v>
       </c>
       <c r="D19">
-        <v>1.01083272895966</v>
+        <v>1.042693449878499</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.01333007078485</v>
+        <v>1.050868488226467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040820090202715</v>
+        <v>1.036605832619711</v>
       </c>
       <c r="J19">
-        <v>1.012717018781976</v>
+        <v>1.040649720782612</v>
       </c>
       <c r="K19">
-        <v>1.024403504134807</v>
+        <v>1.045980326745442</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.026859278291147</v>
+        <v>1.054128009043915</v>
       </c>
       <c r="N19">
-        <v>1.007553185875458</v>
+        <v>1.017394172405321</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829821321018647</v>
+        <v>1.034149920286194</v>
       </c>
       <c r="D20">
-        <v>1.009136899416125</v>
+        <v>1.042372123371354</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.011434630206983</v>
+        <v>1.050501044333445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040210388476504</v>
+        <v>1.036519552656664</v>
       </c>
       <c r="J20">
-        <v>1.011185201127259</v>
+        <v>1.040358507981656</v>
       </c>
       <c r="K20">
-        <v>1.023020967838973</v>
+        <v>1.045723552679828</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.025279351818707</v>
+        <v>1.053824694457664</v>
       </c>
       <c r="N20">
-        <v>1.007025003049731</v>
+        <v>1.017295176419295</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9755225032494289</v>
+        <v>1.0328016942822</v>
       </c>
       <c r="D21">
-        <v>1.003496622952053</v>
+        <v>1.041326870821919</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.005133463863168</v>
+        <v>1.049306261767491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038165894618529</v>
+        <v>1.036236969438663</v>
       </c>
       <c r="J21">
-        <v>1.006080504530633</v>
+        <v>1.039410601622106</v>
       </c>
       <c r="K21">
-        <v>1.018412052169571</v>
+        <v>1.044887296603814</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.020018229514015</v>
+        <v>1.052837573098609</v>
       </c>
       <c r="N21">
-        <v>1.005264344608898</v>
+        <v>1.016972738301033</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9706866072063365</v>
+        <v>1.031953634637219</v>
       </c>
       <c r="D22">
-        <v>0.9998470718111024</v>
+        <v>1.040669223295299</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.001058534712023</v>
+        <v>1.048554905923779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03683026816978</v>
+        <v>1.036057703173592</v>
       </c>
       <c r="J22">
-        <v>1.002769574877826</v>
+        <v>1.038813730979094</v>
       </c>
       <c r="K22">
-        <v>1.015421558847639</v>
+        <v>1.044360386462797</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.016609050948739</v>
+        <v>1.052216146708437</v>
       </c>
       <c r="N22">
-        <v>1.004122037457126</v>
+        <v>1.016769552727087</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9732646416485232</v>
+        <v>1.032403243541065</v>
       </c>
       <c r="D23">
-        <v>1.001791962669379</v>
+        <v>1.041017898171868</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.003229907800036</v>
+        <v>1.048953228306723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037543229178638</v>
+        <v>1.036152886903852</v>
       </c>
       <c r="J23">
-        <v>1.004534773295093</v>
+        <v>1.039130227632474</v>
       </c>
       <c r="K23">
-        <v>1.01701601326237</v>
+        <v>1.044639818221103</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.018426315094102</v>
+        <v>1.052545651235811</v>
       </c>
       <c r="N23">
-        <v>1.004731077615257</v>
+        <v>1.016877308571868</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9831048561101496</v>
+        <v>1.034172517261981</v>
       </c>
       <c r="D24">
-        <v>1.009229795151625</v>
+        <v>1.042389639505566</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.011538449068166</v>
+        <v>1.050521072580047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04024384938654</v>
+        <v>1.036524263187351</v>
       </c>
       <c r="J24">
-        <v>1.011269148663162</v>
+        <v>1.040374384859188</v>
       </c>
       <c r="K24">
-        <v>1.023096741066255</v>
+        <v>1.045737553657943</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.025365921874914</v>
+        <v>1.053841230460511</v>
       </c>
       <c r="N24">
-        <v>1.007053950902686</v>
+        <v>1.017300574432967</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9939466776621764</v>
+        <v>1.036224097553</v>
       </c>
       <c r="D25">
-        <v>1.017448740509219</v>
+        <v>1.043979512082622</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.020729328689809</v>
+        <v>1.05233985588705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043174536314412</v>
+        <v>1.036948290117123</v>
       </c>
       <c r="J25">
-        <v>1.018679491784292</v>
+        <v>1.041814350637852</v>
       </c>
       <c r="K25">
-        <v>1.02978209386093</v>
+        <v>1.047006555430932</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.033014150764776</v>
+        <v>1.055341296512196</v>
       </c>
       <c r="N25">
-        <v>1.009608203524904</v>
+        <v>1.017789776618918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03785925370218</v>
+        <v>1.002183955317687</v>
       </c>
       <c r="D2">
-        <v>1.04524604160471</v>
+        <v>1.023708036917068</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.053790055485428</v>
+        <v>1.027737097500177</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037280911380811</v>
+        <v>1.045362894423305</v>
       </c>
       <c r="J2">
-        <v>1.042959835490737</v>
+        <v>1.024299540300092</v>
       </c>
       <c r="K2">
-        <v>1.048014820969711</v>
+        <v>1.034846673756343</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.056535052745712</v>
+        <v>1.03882307562931</v>
       </c>
       <c r="N2">
-        <v>1.018178382498527</v>
+        <v>1.011543546500806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039045880737935</v>
+        <v>1.007951097500701</v>
       </c>
       <c r="D3">
-        <v>1.046164771942056</v>
+        <v>1.028096951108497</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.054842783620176</v>
+        <v>1.032655835316047</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037519192159759</v>
+        <v>1.046871749966704</v>
       </c>
       <c r="J3">
-        <v>1.043789825735101</v>
+        <v>1.028227329691143</v>
       </c>
       <c r="K3">
-        <v>1.048744673321982</v>
+        <v>1.038382517844548</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.057400282218778</v>
+        <v>1.042887256575662</v>
       </c>
       <c r="N3">
-        <v>1.018459634241917</v>
+        <v>1.012894901922206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039813424913413</v>
+        <v>1.011590960599503</v>
       </c>
       <c r="D4">
-        <v>1.046758848677108</v>
+        <v>1.030869436277477</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.055523861995926</v>
+        <v>1.035765400368553</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03767188201818</v>
+        <v>1.047812920487271</v>
       </c>
       <c r="J4">
-        <v>1.044326090291865</v>
+        <v>1.030702744906461</v>
       </c>
       <c r="K4">
-        <v>1.049215906405099</v>
+        <v>1.040609040375464</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.057959435242298</v>
+        <v>1.045450512041562</v>
       </c>
       <c r="N4">
-        <v>1.018641203521407</v>
+        <v>1.013745939154373</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040136034459991</v>
+        <v>1.013100141195674</v>
       </c>
       <c r="D5">
-        <v>1.047008502464379</v>
+        <v>1.032019491818915</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.055810162324627</v>
+        <v>1.037055864321107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037735715376262</v>
+        <v>1.048200432087401</v>
       </c>
       <c r="J5">
-        <v>1.044551346505638</v>
+        <v>1.031728212099415</v>
       </c>
       <c r="K5">
-        <v>1.049413766704775</v>
+        <v>1.041530929338603</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.058194334194198</v>
+        <v>1.046512799359431</v>
       </c>
       <c r="N5">
-        <v>1.018717435032862</v>
+        <v>1.014098331009119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040190198199891</v>
+        <v>1.013352333927543</v>
       </c>
       <c r="D6">
-        <v>1.0470504148134</v>
+        <v>1.032211700504467</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.055858231960476</v>
+        <v>1.037271574116394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037746412320644</v>
+        <v>1.048265025964316</v>
       </c>
       <c r="J6">
-        <v>1.044589156932336</v>
+        <v>1.031899519046719</v>
       </c>
       <c r="K6">
-        <v>1.049446973904652</v>
+        <v>1.04168490491757</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.05823376486988</v>
+        <v>1.046690282004933</v>
       </c>
       <c r="N6">
-        <v>1.018730228768067</v>
+        <v>1.014157189362404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039817735895279</v>
+        <v>1.011611207687203</v>
       </c>
       <c r="D7">
-        <v>1.046762184940164</v>
+        <v>1.030884863442458</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.055527687652471</v>
+        <v>1.03578270868727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037672736367023</v>
+        <v>1.047818130152309</v>
       </c>
       <c r="J7">
-        <v>1.044329100919623</v>
+        <v>1.030716506155487</v>
       </c>
       <c r="K7">
-        <v>1.0492185511904</v>
+        <v>1.04062141355123</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057962574636835</v>
+        <v>1.045464765717601</v>
       </c>
       <c r="N7">
-        <v>1.018642222524125</v>
+        <v>1.013750668715719</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038260339453638</v>
+        <v>1.004152616134354</v>
       </c>
       <c r="D8">
-        <v>1.045556614593963</v>
+        <v>1.025205656730627</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.054145852445229</v>
+        <v>1.029415012389963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037361748862569</v>
+        <v>1.045880261806658</v>
       </c>
       <c r="J8">
-        <v>1.043240499614611</v>
+        <v>1.025641041781109</v>
       </c>
       <c r="K8">
-        <v>1.048261691625087</v>
+        <v>1.036054691440939</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.056827608112215</v>
+        <v>1.040210751415852</v>
       </c>
       <c r="N8">
-        <v>1.018273519799433</v>
+        <v>1.012005217078524</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035513765333836</v>
+        <v>0.9902587435835724</v>
       </c>
       <c r="D9">
-        <v>1.043429135992441</v>
+        <v>1.014650367027301</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.051710033160227</v>
+        <v>1.017598751444086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036802302045913</v>
+        <v>1.042183552036816</v>
       </c>
       <c r="J9">
-        <v>1.041316121389348</v>
+        <v>1.016160243237539</v>
       </c>
       <c r="K9">
-        <v>1.046567667916862</v>
+        <v>1.027510141375791</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.054822200287946</v>
+        <v>1.030412611173116</v>
       </c>
       <c r="N9">
-        <v>1.017620597453043</v>
+        <v>1.00874011259831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033681099025833</v>
+        <v>0.9804190770803464</v>
       </c>
       <c r="D10">
-        <v>1.042008693196644</v>
+        <v>1.007197548981653</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.050085539449362</v>
+        <v>1.00926753322422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036421630169053</v>
+        <v>1.039510231382965</v>
       </c>
       <c r="J10">
-        <v>1.040029030136272</v>
+        <v>1.009431709675813</v>
       </c>
       <c r="K10">
-        <v>1.045432959897615</v>
+        <v>1.021438054214988</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.053481555565409</v>
+        <v>1.023471451554616</v>
       </c>
       <c r="N10">
-        <v>1.017183136749386</v>
+        <v>1.006420290536897</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032887125701578</v>
+        <v>0.976003378632746</v>
       </c>
       <c r="D11">
-        <v>1.041393113755787</v>
+        <v>1.003859833767939</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.049381959425644</v>
+        <v>1.005539101742108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036254964084407</v>
+        <v>1.038298289421138</v>
       </c>
       <c r="J11">
-        <v>1.039470702682946</v>
+        <v>1.006409678155941</v>
       </c>
       <c r="K11">
-        <v>1.044940338614154</v>
+        <v>1.018709324535361</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.052900152590287</v>
+        <v>1.020357309294304</v>
       </c>
       <c r="N11">
-        <v>1.016993191236495</v>
+        <v>1.005377900474332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032592143786833</v>
+        <v>0.9743381729704973</v>
       </c>
       <c r="D12">
-        <v>1.041164381440408</v>
+        <v>1.002602316072236</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.049120592878882</v>
+        <v>1.004134765061757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036192781230252</v>
+        <v>1.037839493301433</v>
       </c>
       <c r="J12">
-        <v>1.039263162271762</v>
+        <v>1.005269743484005</v>
       </c>
       <c r="K12">
-        <v>1.044757163155202</v>
+        <v>1.017679829062178</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.052684058212966</v>
+        <v>1.019183175922652</v>
       </c>
       <c r="N12">
-        <v>1.016922558240891</v>
+        <v>1.004984643843733</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032655421380816</v>
+        <v>0.9746965269053761</v>
       </c>
       <c r="D13">
-        <v>1.041213448873329</v>
+        <v>1.002872879977756</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.049176658065433</v>
+        <v>1.004436900859329</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036206132142346</v>
+        <v>1.03793830483516</v>
       </c>
       <c r="J13">
-        <v>1.039307687325851</v>
+        <v>1.005515070550939</v>
       </c>
       <c r="K13">
-        <v>1.044796463705321</v>
+        <v>1.017901396657888</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.052730417334334</v>
+        <v>1.019435837646352</v>
       </c>
       <c r="N13">
-        <v>1.016937712828254</v>
+        <v>1.005069279644144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032862743740935</v>
+        <v>0.9758662531497634</v>
       </c>
       <c r="D14">
-        <v>1.041374208281566</v>
+        <v>1.003756255774604</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.049360355313558</v>
+        <v>1.005423422923041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036249829655278</v>
+        <v>1.038260543976752</v>
       </c>
       <c r="J14">
-        <v>1.039453550450695</v>
+        <v>1.006315812923333</v>
       </c>
       <c r="K14">
-        <v>1.044925201235884</v>
+        <v>1.018624556948647</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.052882292929902</v>
+        <v>1.020260616735801</v>
       </c>
       <c r="N14">
-        <v>1.016987354299939</v>
+        <v>1.00534551980259</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032990473225741</v>
+        <v>0.9765835904846941</v>
       </c>
       <c r="D15">
-        <v>1.041473247004988</v>
+        <v>1.004298146344805</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.04947353382782</v>
+        <v>1.006028637253023</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036276716599517</v>
+        <v>1.03845792857903</v>
       </c>
       <c r="J15">
-        <v>1.039543401260244</v>
+        <v>1.006806833658817</v>
       </c>
       <c r="K15">
-        <v>1.045004494946341</v>
+        <v>1.019067978966951</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.052975850522638</v>
+        <v>1.020766450025732</v>
       </c>
       <c r="N15">
-        <v>1.017017929600709</v>
+        <v>1.005514904820194</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033733783447653</v>
+        <v>0.9807087222656425</v>
       </c>
       <c r="D16">
-        <v>1.042049536185492</v>
+        <v>1.007416638293971</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.050132230205188</v>
+        <v>1.009512323704818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036432652609557</v>
+        <v>1.039589480254476</v>
       </c>
       <c r="J16">
-        <v>1.040066063139062</v>
+        <v>1.009629892791045</v>
       </c>
       <c r="K16">
-        <v>1.045465626395776</v>
+        <v>1.021616973725774</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.053520122427798</v>
+        <v>1.023675748638014</v>
       </c>
       <c r="N16">
-        <v>1.017195731778571</v>
+        <v>1.00648864109564</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034199929147875</v>
+        <v>0.9832536301648498</v>
       </c>
       <c r="D17">
-        <v>1.042410887806651</v>
+        <v>1.00934241377777</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.050545368533119</v>
+        <v>1.011664311674918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036529976274767</v>
+        <v>1.040284404893363</v>
       </c>
       <c r="J17">
-        <v>1.040393644271744</v>
+        <v>1.011370913673765</v>
       </c>
       <c r="K17">
-        <v>1.045754537253323</v>
+        <v>1.023188595794676</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.053861289525906</v>
+        <v>1.025470868195172</v>
       </c>
       <c r="N17">
-        <v>1.017307122363627</v>
+        <v>1.007089042488809</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034471783995301</v>
+        <v>0.9847231959456877</v>
       </c>
       <c r="D18">
-        <v>1.042621608139253</v>
+        <v>1.010455096550749</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.050786329423413</v>
+        <v>1.012907950046032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036586566719821</v>
+        <v>1.040684529234292</v>
       </c>
       <c r="J18">
-        <v>1.040584619587953</v>
+        <v>1.012376030422915</v>
       </c>
       <c r="K18">
-        <v>1.045922930124603</v>
+        <v>1.024095769190165</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.054060200237985</v>
+        <v>1.026507534068605</v>
       </c>
       <c r="N18">
-        <v>1.017372044251006</v>
+        <v>1.007435617506163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034564472747121</v>
+        <v>0.9852218130974536</v>
       </c>
       <c r="D19">
-        <v>1.042693449878499</v>
+        <v>1.01083272895966</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.050868488226467</v>
+        <v>1.013330070784849</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036605832619711</v>
+        <v>1.040820090202715</v>
       </c>
       <c r="J19">
-        <v>1.040649720782612</v>
+        <v>1.012717018781976</v>
       </c>
       <c r="K19">
-        <v>1.045980326745442</v>
+        <v>1.024403504134807</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.054128009043915</v>
+        <v>1.026859278291147</v>
       </c>
       <c r="N19">
-        <v>1.017394172405321</v>
+        <v>1.007553185875458</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034149920286194</v>
+        <v>0.9829821321018647</v>
       </c>
       <c r="D20">
-        <v>1.042372123371354</v>
+        <v>1.009136899416125</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.050501044333445</v>
+        <v>1.011434630206983</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036519552656664</v>
+        <v>1.040210388476504</v>
       </c>
       <c r="J20">
-        <v>1.040358507981656</v>
+        <v>1.011185201127259</v>
       </c>
       <c r="K20">
-        <v>1.045723552679828</v>
+        <v>1.023020967838973</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.053824694457664</v>
+        <v>1.025279351818707</v>
       </c>
       <c r="N20">
-        <v>1.017295176419295</v>
+        <v>1.007025003049731</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0328016942822</v>
+        <v>0.9755225032494284</v>
       </c>
       <c r="D21">
-        <v>1.041326870821919</v>
+        <v>1.003496622952053</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.049306261767491</v>
+        <v>1.005133463863167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036236969438663</v>
+        <v>1.038165894618529</v>
       </c>
       <c r="J21">
-        <v>1.039410601622106</v>
+        <v>1.006080504530632</v>
       </c>
       <c r="K21">
-        <v>1.044887296603814</v>
+        <v>1.01841205216957</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.052837573098609</v>
+        <v>1.020018229514015</v>
       </c>
       <c r="N21">
-        <v>1.016972738301033</v>
+        <v>1.005264344608897</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031953634637219</v>
+        <v>0.9706866072063377</v>
       </c>
       <c r="D22">
-        <v>1.040669223295299</v>
+        <v>0.9998470718111033</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.048554905923779</v>
+        <v>1.001058534712024</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036057703173592</v>
+        <v>1.036830268169781</v>
       </c>
       <c r="J22">
-        <v>1.038813730979094</v>
+        <v>1.002769574877827</v>
       </c>
       <c r="K22">
-        <v>1.044360386462797</v>
+        <v>1.01542155884764</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.052216146708437</v>
+        <v>1.01660905094874</v>
       </c>
       <c r="N22">
-        <v>1.016769552727087</v>
+        <v>1.004122037457126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032403243541065</v>
+        <v>0.9732646416485243</v>
       </c>
       <c r="D23">
-        <v>1.041017898171868</v>
+        <v>1.001791962669381</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.048953228306723</v>
+        <v>1.003229907800037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036152886903852</v>
+        <v>1.037543229178638</v>
       </c>
       <c r="J23">
-        <v>1.039130227632474</v>
+        <v>1.004534773295094</v>
       </c>
       <c r="K23">
-        <v>1.044639818221103</v>
+        <v>1.017016013262372</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.052545651235811</v>
+        <v>1.018426315094103</v>
       </c>
       <c r="N23">
-        <v>1.016877308571868</v>
+        <v>1.004731077615257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034172517261981</v>
+        <v>0.9831048561101493</v>
       </c>
       <c r="D24">
-        <v>1.042389639505566</v>
+        <v>1.009229795151625</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.050521072580047</v>
+        <v>1.011538449068166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036524263187351</v>
+        <v>1.04024384938654</v>
       </c>
       <c r="J24">
-        <v>1.040374384859188</v>
+        <v>1.011269148663162</v>
       </c>
       <c r="K24">
-        <v>1.045737553657943</v>
+        <v>1.023096741066255</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.053841230460511</v>
+        <v>1.025365921874914</v>
       </c>
       <c r="N24">
-        <v>1.017300574432967</v>
+        <v>1.007053950902686</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.036224097553</v>
+        <v>0.9939466776621774</v>
       </c>
       <c r="D25">
-        <v>1.043979512082622</v>
+        <v>1.01744874050922</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.05233985588705</v>
+        <v>1.020729328689811</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036948290117123</v>
+        <v>1.043174536314412</v>
       </c>
       <c r="J25">
-        <v>1.041814350637852</v>
+        <v>1.018679491784293</v>
       </c>
       <c r="K25">
-        <v>1.047006555430932</v>
+        <v>1.029782093860931</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.055341296512196</v>
+        <v>1.033014150764777</v>
       </c>
       <c r="N25">
-        <v>1.017789776618918</v>
+        <v>1.009608203524904</v>
       </c>
     </row>
   </sheetData>
